--- a/data/trans_orig/Q02D_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4911</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1895</v>
+        <v>1861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11083</v>
+        <v>11017</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04334334537182548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01672029278953297</v>
+        <v>0.01642192318553991</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09781046499003708</v>
+        <v>0.09723362852256077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>15150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8893</v>
+        <v>8536</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24528</v>
+        <v>23616</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05660194431181824</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03322455456562273</v>
+        <v>0.03189094999589927</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09164035718761569</v>
+        <v>0.08823579305561702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>20061</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12687</v>
+        <v>12125</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29575</v>
+        <v>29634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0526584379652259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03330379551853587</v>
+        <v>0.03182710937379574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07763412774640502</v>
+        <v>0.07778719809193395</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>15639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9183</v>
+        <v>8839</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23942</v>
+        <v>24550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.138023431040073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08104680214655484</v>
+        <v>0.0780087168844241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.21129931953114</v>
+        <v>0.2166648790778167</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>39371</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28141</v>
+        <v>29407</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50863</v>
+        <v>51484</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1470988830917683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1051408418988529</v>
+        <v>0.1098700949434601</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1900372388692703</v>
+        <v>0.1923551054601733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -857,19 +857,19 @@
         <v>55010</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41444</v>
+        <v>42126</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70190</v>
+        <v>70424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1443995705229189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1087879006510214</v>
+        <v>0.1105784736112294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1842464858960867</v>
+        <v>0.1848604598147431</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>92758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83466</v>
+        <v>84413</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100476</v>
+        <v>101051</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8186332235881015</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7366264116249006</v>
+        <v>0.7449873371296458</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8867526803200182</v>
+        <v>0.8918256508798164</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>208</v>
@@ -907,19 +907,19 @@
         <v>213129</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>199298</v>
+        <v>199498</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>226312</v>
+        <v>224129</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7962991725964135</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7446209131833292</v>
+        <v>0.7453675016127782</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8455520066931389</v>
+        <v>0.8373957600394617</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>297</v>
@@ -928,19 +928,19 @@
         <v>305887</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>288941</v>
+        <v>289920</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>320402</v>
+        <v>320305</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8029419915118552</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7584588683968463</v>
+        <v>0.7610275572147412</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8410433046028845</v>
+        <v>0.8407880628925264</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>4780</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11892</v>
+        <v>12636</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01248712220112014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002919949737833921</v>
+        <v>0.002913170860417575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03106848227493882</v>
+        <v>0.03301139120351614</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -1053,19 +1053,19 @@
         <v>30056</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20777</v>
+        <v>19889</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43950</v>
+        <v>42843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05346603422321244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0369597576290351</v>
+        <v>0.03538036915645229</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07818153408052742</v>
+        <v>0.07621171895376333</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -1074,19 +1074,19 @@
         <v>34836</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23612</v>
+        <v>23771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49171</v>
+        <v>49438</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03686649524449649</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02498880574906176</v>
+        <v>0.02515714832989471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05203714368540464</v>
+        <v>0.05231965919823908</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>17214</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10225</v>
+        <v>9819</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30384</v>
+        <v>26083</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0449721094474188</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02671374070338637</v>
+        <v>0.02565425303985541</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07938061478935336</v>
+        <v>0.06814404542014876</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>77</v>
@@ -1124,19 +1124,19 @@
         <v>84888</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>67656</v>
+        <v>67938</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104716</v>
+        <v>103304</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.151003740228613</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1203511786746271</v>
+        <v>0.120851884396724</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.186275668607343</v>
+        <v>0.1837633904741804</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>93</v>
@@ -1145,19 +1145,19 @@
         <v>102101</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>83292</v>
+        <v>84495</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>124241</v>
+        <v>123157</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1080529613699559</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08814674028453846</v>
+        <v>0.08942049694065003</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1314827086044824</v>
+        <v>0.1303358763426107</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>360770</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>347272</v>
+        <v>350798</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>368584</v>
+        <v>369946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9425407683514611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9072757393653077</v>
+        <v>0.9164878066667875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9629558500083015</v>
+        <v>0.9665132927639998</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>437</v>
@@ -1195,19 +1195,19 @@
         <v>447212</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>427219</v>
+        <v>428104</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>466675</v>
+        <v>466718</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7955302255481745</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7599655499228802</v>
+        <v>0.76153868555947</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.830151556953358</v>
+        <v>0.8302293413191145</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>783</v>
@@ -1216,19 +1216,19 @@
         <v>807983</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>784859</v>
+        <v>783446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>828974</v>
+        <v>828059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8550805433855476</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8306092500081943</v>
+        <v>0.829114081582276</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8772954921583047</v>
+        <v>0.8763270664581824</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3977</v>
+        <v>4436</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007024510923583923</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03167458677784907</v>
+        <v>0.03533340684038086</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1341,19 +1341,19 @@
         <v>4751</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11907</v>
+        <v>12036</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02838578080806262</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008943480386871918</v>
+        <v>0.008923004032434761</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0711506629132387</v>
+        <v>0.07192058777603354</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1362,19 +1362,19 @@
         <v>5632</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1909</v>
+        <v>2028</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12739</v>
+        <v>12241</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01922955080601465</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006515819586968547</v>
+        <v>0.006923725053442869</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04349217744474462</v>
+        <v>0.04179172819293542</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>9742</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4625</v>
+        <v>4906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18944</v>
+        <v>19046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07759801577480664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03683585272191973</v>
+        <v>0.03907498805354155</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1508909304715824</v>
+        <v>0.1516993787092085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1412,19 +1412,19 @@
         <v>25992</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17009</v>
+        <v>17562</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36747</v>
+        <v>36527</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1553087227293526</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1016359660268428</v>
+        <v>0.1049399593701656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.219575955437101</v>
+        <v>0.2182615542611587</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1433,19 +1433,19 @@
         <v>35734</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24629</v>
+        <v>25805</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50000</v>
+        <v>50560</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1219990407513827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0840850520838539</v>
+        <v>0.08809824303448396</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1707027875979631</v>
+        <v>0.1726163044150199</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>114926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105522</v>
+        <v>105779</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>120032</v>
+        <v>120073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9153774733016095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8404780325121661</v>
+        <v>0.842523894146469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9560501040030366</v>
+        <v>0.9563726264741331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -1483,19 +1483,19 @@
         <v>136614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>125348</v>
+        <v>125532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>146063</v>
+        <v>146579</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8163054964625848</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7489907220071192</v>
+        <v>0.7500905504153685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8727702424038015</v>
+        <v>0.875849363244496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>242</v>
@@ -1504,19 +1504,19 @@
         <v>251539</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>237031</v>
+        <v>235470</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>263358</v>
+        <v>261935</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8587714084426027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8092387559071356</v>
+        <v>0.8039105550002242</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8991218231474627</v>
+        <v>0.8942624472459044</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>10573</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5375</v>
+        <v>5340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19073</v>
+        <v>18934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01700825399198888</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008646045663105962</v>
+        <v>0.008590296928139561</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03068279950719993</v>
+        <v>0.03045944287669898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1629,19 +1629,19 @@
         <v>49956</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36612</v>
+        <v>37910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65746</v>
+        <v>64738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05009847472234107</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03671637061760159</v>
+        <v>0.0380175555272225</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06593263629744277</v>
+        <v>0.06492209774478441</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -1650,19 +1650,19 @@
         <v>60529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44682</v>
+        <v>45525</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77488</v>
+        <v>77996</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03739164064101837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02760230341380234</v>
+        <v>0.02812298885809222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04786814145442439</v>
+        <v>0.04818209306034788</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>42595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31717</v>
+        <v>31190</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57844</v>
+        <v>57582</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06852289849745966</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0510237497569116</v>
+        <v>0.05017449916687127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09305364422752574</v>
+        <v>0.09263241913508159</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -1700,19 +1700,19 @@
         <v>150251</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129686</v>
+        <v>129466</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174801</v>
+        <v>173574</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1506781460756626</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1300549322742648</v>
+        <v>0.1298340025070558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1752981302185422</v>
+        <v>0.174068368478912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>180</v>
@@ -1721,19 +1721,19 @@
         <v>192846</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>166544</v>
+        <v>166774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>220264</v>
+        <v>221044</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1191300609663765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1028824177181045</v>
+        <v>0.1030241749191223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1360673038045701</v>
+        <v>0.1365496950315941</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>568454</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>552346</v>
+        <v>552485</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>581075</v>
+        <v>580449</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9144688475105515</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8885567094124864</v>
+        <v>0.8887790665100262</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9347716174885692</v>
+        <v>0.933764860218686</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>773</v>
@@ -1771,19 +1771,19 @@
         <v>796955</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>770165</v>
+        <v>770911</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>819567</v>
+        <v>821498</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7992233792019963</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7723568543905481</v>
+        <v>0.7731053555151441</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8218999061915163</v>
+        <v>0.8238365066312404</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1322</v>
@@ -1792,19 +1792,19 @@
         <v>1365409</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1336171</v>
+        <v>1332417</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1395624</v>
+        <v>1393957</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8434782983926051</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8254163907998381</v>
+        <v>0.8230971703339086</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8621437200701898</v>
+        <v>0.8611137763232748</v>
       </c>
     </row>
     <row r="19">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4901</v>
+        <v>5264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004844246056906598</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02770611742848072</v>
+        <v>0.02975863843184173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9302</v>
+        <v>9284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0048489028853866</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02416883122326187</v>
+        <v>0.02412027027832086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10891</v>
+        <v>11339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004847436626996176</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01938627111943848</v>
+        <v>0.02018382933850927</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>28333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19152</v>
+        <v>19215</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39297</v>
+        <v>39675</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1601832189837341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1082803436008203</v>
+        <v>0.1086361173749163</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2221722804490117</v>
+        <v>0.2243085829814918</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -2227,19 +2227,19 @@
         <v>85088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70330</v>
+        <v>67110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>105249</v>
+        <v>101708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.221073718854109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1827282676285313</v>
+        <v>0.1743623541858059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2734547572983134</v>
+        <v>0.2642557708341475</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -2248,19 +2248,19 @@
         <v>113421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>93687</v>
+        <v>95490</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>133357</v>
+        <v>134892</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2019016134790842</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1667718451494998</v>
+        <v>0.1699826468591556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2373886995539214</v>
+        <v>0.2401216288329079</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>147688</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>136332</v>
+        <v>135967</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156967</v>
+        <v>157113</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8349725349593593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7707679691918535</v>
+        <v>0.7687062883895369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8874331298118745</v>
+        <v>0.8882577927352461</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>278</v>
@@ -2298,19 +2298,19 @@
         <v>297932</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>278567</v>
+        <v>280247</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>313589</v>
+        <v>316356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7740773782605044</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7237646423383801</v>
+        <v>0.7281303842361734</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8147570090837746</v>
+        <v>0.8219462104467242</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>418</v>
@@ -2319,19 +2319,19 @@
         <v>445621</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>424763</v>
+        <v>424598</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>465227</v>
+        <v>464414</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7932509498939196</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7561219082726609</v>
+        <v>0.7558279299080402</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8281531302754037</v>
+        <v>0.8267054877191936</v>
       </c>
     </row>
     <row r="7">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6879</v>
+        <v>7864</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003188067475451836</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01115241680111771</v>
+        <v>0.01274896066839991</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6884</v>
+        <v>6299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001299004738098651</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.004547351451065785</v>
+        <v>0.004160548589321335</v>
       </c>
     </row>
     <row r="9">
@@ -2486,19 +2486,19 @@
         <v>82026</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>67128</v>
+        <v>66176</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>100976</v>
+        <v>101249</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1329739761973718</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1088234002478735</v>
+        <v>0.1072788559771076</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.163694923176968</v>
+        <v>0.1641369511261658</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>205</v>
@@ -2507,19 +2507,19 @@
         <v>220558</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>195161</v>
+        <v>193731</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>248764</v>
+        <v>248433</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2458690197469536</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2175570267580623</v>
+        <v>0.2159627698069786</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2773115598723408</v>
+        <v>0.2769429002900398</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>285</v>
@@ -2528,19 +2528,19 @@
         <v>302584</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>271545</v>
+        <v>272370</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>335842</v>
+        <v>334587</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1998689906986425</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.179366040274837</v>
+        <v>0.1799112275115883</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2218369097448497</v>
+        <v>0.2210079716625749</v>
       </c>
     </row>
     <row r="10">
@@ -2557,19 +2557,19 @@
         <v>532864</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>514330</v>
+        <v>513541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>548428</v>
+        <v>549119</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8638379563271764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8337926840201336</v>
+        <v>0.8325142002430098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.889070075055105</v>
+        <v>0.8901902266952187</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>632</v>
@@ -2578,19 +2578,19 @@
         <v>676498</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>648292</v>
+        <v>648623</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>701895</v>
+        <v>703325</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7541309802530464</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7226884401276592</v>
+        <v>0.72305709970996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7824429732419377</v>
+        <v>0.7840372301930214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1141</v>
@@ -2599,19 +2599,19 @@
         <v>1209362</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1177091</v>
+        <v>1177366</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1240778</v>
+        <v>1238619</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7988320045632589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7775155556607367</v>
+        <v>0.7776972786546149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.819583178776268</v>
+        <v>0.8181573041426452</v>
       </c>
     </row>
     <row r="11">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4844</v>
+        <v>5303</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.004308836591789321</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02154639739986002</v>
+        <v>0.02358516495463819</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4681</v>
+        <v>4913</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002409839156664257</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01164467490423947</v>
+        <v>0.01222067747278334</v>
       </c>
     </row>
     <row r="13">
@@ -2766,19 +2766,19 @@
         <v>18540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11456</v>
+        <v>11006</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28703</v>
+        <v>27957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1046456281889146</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06466006761050311</v>
+        <v>0.06211982914129496</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1620069883054894</v>
+        <v>0.1577918162757808</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -2787,19 +2787,19 @@
         <v>62932</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49081</v>
+        <v>50035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75858</v>
+        <v>78050</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2799038869856798</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2183006505795883</v>
+        <v>0.2225438082507799</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3373948690147394</v>
+        <v>0.3471459994935571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -2808,19 +2808,19 @@
         <v>81472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65903</v>
+        <v>63681</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100280</v>
+        <v>96470</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.202663783572676</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1639354247468673</v>
+        <v>0.1584066182953401</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.249446986614501</v>
+        <v>0.2399698197518722</v>
       </c>
     </row>
     <row r="14">
@@ -2837,19 +2837,19 @@
         <v>158634</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148471</v>
+        <v>149217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>165718</v>
+        <v>166168</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8953543718110853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8379930116945096</v>
+        <v>0.8422081837242194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9353399323894966</v>
+        <v>0.937880170858705</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -2858,19 +2858,19 @@
         <v>160933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>148122</v>
+        <v>145528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175069</v>
+        <v>174148</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7157872764225309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6588081335361918</v>
+        <v>0.6472672570944239</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7786586735476386</v>
+        <v>0.7745645073155267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>289</v>
@@ -2879,19 +2879,19 @@
         <v>319567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>301446</v>
+        <v>304018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>334983</v>
+        <v>337480</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7949263772706597</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7498497974546309</v>
+        <v>0.7562481657059519</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8332745296313042</v>
+        <v>0.8394852499245183</v>
       </c>
     </row>
     <row r="15">
@@ -2983,19 +2983,19 @@
         <v>2823</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8493</v>
+        <v>7611</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002908021278651064</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0008832017340104395</v>
+        <v>0.0008710513704419786</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008746972397196719</v>
+        <v>0.007838908584281537</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11015</v>
+        <v>11197</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001881532933156799</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007310442545703327</v>
+        <v>0.007431185319937984</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3025,19 +3025,19 @@
         <v>5658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1878</v>
+        <v>1884</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13434</v>
+        <v>13888</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002283773719461831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0007580137600376717</v>
+        <v>0.0007605658999599207</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005421867047325959</v>
+        <v>0.005605269450072507</v>
       </c>
     </row>
     <row r="17">
@@ -3054,19 +3054,19 @@
         <v>128899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108468</v>
+        <v>108600</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150592</v>
+        <v>151051</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1327614854910559</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1117182911802276</v>
+        <v>0.1118535712751627</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1551043721008073</v>
+        <v>0.1555772025047159</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>341</v>
@@ -3075,19 +3075,19 @@
         <v>368579</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>334690</v>
+        <v>332624</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>402322</v>
+        <v>403333</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2446139139715547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2221231856865319</v>
+        <v>0.2207522292084227</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2670081302055077</v>
+        <v>0.2676791437000922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>464</v>
@@ -3096,19 +3096,19 @@
         <v>497478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>460571</v>
+        <v>454509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>539177</v>
+        <v>540391</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2007833054901118</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1858877946110643</v>
+        <v>0.1834411631635851</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2176132651214732</v>
+        <v>0.2181032694831816</v>
       </c>
     </row>
     <row r="18">
@@ -3125,19 +3125,19 @@
         <v>839185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>817404</v>
+        <v>817233</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>860759</v>
+        <v>860308</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8643304932302931</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8418969189624442</v>
+        <v>0.8417202734101926</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8865505256064476</v>
+        <v>0.8860855713630346</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1055</v>
@@ -3146,19 +3146,19 @@
         <v>1135363</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1100943</v>
+        <v>1100947</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1168388</v>
+        <v>1171487</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7535045530952885</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7306606401253997</v>
+        <v>0.7306634833468637</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7754218475401248</v>
+        <v>0.7774787114524477</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1848</v>
@@ -3167,19 +3167,19 @@
         <v>1974549</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1931848</v>
+        <v>1931429</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2011342</v>
+        <v>2015834</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7969329207904263</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7796985930226402</v>
+        <v>0.7795297290886073</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8117827678466913</v>
+        <v>0.8135958857155579</v>
       </c>
     </row>
     <row r="19">
@@ -3510,19 +3510,19 @@
         <v>6848</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12827</v>
+        <v>12724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05633746270099323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02380187670519116</v>
+        <v>0.0238271338274118</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1055341113907505</v>
+        <v>0.1046818407161475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -3531,19 +3531,19 @@
         <v>22595</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14592</v>
+        <v>14762</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32203</v>
+        <v>33335</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.118559673872539</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07656487492370373</v>
+        <v>0.07745935433966016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1689715339936633</v>
+        <v>0.1749121730232897</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -3552,19 +3552,19 @@
         <v>29443</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19190</v>
+        <v>19727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40058</v>
+        <v>41382</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0943294174372284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06148037153158383</v>
+        <v>0.06320073378393989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1283406071843898</v>
+        <v>0.1325799696925548</v>
       </c>
     </row>
     <row r="5">
@@ -3581,19 +3581,19 @@
         <v>20578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13254</v>
+        <v>13162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32259</v>
+        <v>30714</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1693003303290588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1090479442945948</v>
+        <v>0.1082838269188977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2654068835736782</v>
+        <v>0.2526929957731327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3602,19 +3602,19 @@
         <v>37858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26997</v>
+        <v>27492</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49839</v>
+        <v>49625</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1986487535101737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1416576395735756</v>
+        <v>0.1442568526271121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2615138604250767</v>
+        <v>0.2603887904619563</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -3623,19 +3623,19 @@
         <v>58436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45385</v>
+        <v>45565</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74570</v>
+        <v>74011</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1872200400931933</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1454055621165765</v>
+        <v>0.1459837091382447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2389105271127589</v>
+        <v>0.2371179904163159</v>
       </c>
     </row>
     <row r="6">
@@ -3652,19 +3652,19 @@
         <v>94121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83130</v>
+        <v>83346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102994</v>
+        <v>102907</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.774362206969948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6839301048362508</v>
+        <v>0.6857085451851281</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8473591117253939</v>
+        <v>0.846643740440487</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>123</v>
@@ -3673,19 +3673,19 @@
         <v>130126</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116282</v>
+        <v>114695</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>142937</v>
+        <v>142625</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6827915726172873</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6101469510787615</v>
+        <v>0.6018181627061113</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7500109905575264</v>
+        <v>0.7483711685448964</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>216</v>
@@ -3694,19 +3694,19 @@
         <v>224247</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>207964</v>
+        <v>207642</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240775</v>
+        <v>239897</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7184505424695783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.666280636454144</v>
+        <v>0.6652498117364546</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7714035322604159</v>
+        <v>0.7685916383793978</v>
       </c>
     </row>
     <row r="7">
@@ -3798,19 +3798,19 @@
         <v>25063</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15630</v>
+        <v>16452</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37408</v>
+        <v>36205</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05499621433415546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03429613577414181</v>
+        <v>0.03610080079950864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08208470334234524</v>
+        <v>0.07944376758046585</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -3819,19 +3819,19 @@
         <v>67090</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54262</v>
+        <v>52303</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>84602</v>
+        <v>84877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1000645830191502</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08093182950356084</v>
+        <v>0.07801053980879893</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1261853180333964</v>
+        <v>0.1265943459159483</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>88</v>
@@ -3840,19 +3840,19 @@
         <v>92153</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77149</v>
+        <v>75414</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>112726</v>
+        <v>111723</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08182709134534545</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06850462867743014</v>
+        <v>0.06696400407572704</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.100095187187708</v>
+        <v>0.09920478514021598</v>
       </c>
     </row>
     <row r="9">
@@ -3869,19 +3869,19 @@
         <v>85776</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68189</v>
+        <v>68574</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>102833</v>
+        <v>102729</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1882183712990259</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1496278388461008</v>
+        <v>0.1504711050874851</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2256461251693984</v>
+        <v>0.2254178265428553</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>162</v>
@@ -3890,19 +3890,19 @@
         <v>162325</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>142308</v>
+        <v>138424</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>186327</v>
+        <v>183522</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2421089843920242</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2122538677840275</v>
+        <v>0.2064613362098033</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2779089994598848</v>
+        <v>0.2737248747355733</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>246</v>
@@ -3911,19 +3911,19 @@
         <v>248101</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>220582</v>
+        <v>221386</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>276458</v>
+        <v>275074</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2203014587092271</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1958662212804121</v>
+        <v>0.1965797935600019</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2454810764493732</v>
+        <v>0.2442520104234938</v>
       </c>
     </row>
     <row r="10">
@@ -3940,19 +3940,19 @@
         <v>344888</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>327184</v>
+        <v>325178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>364731</v>
+        <v>362745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7567854143668187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7179381022126241</v>
+        <v>0.7135362271395393</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8003283089843066</v>
+        <v>0.7959691811065831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>434</v>
@@ -3961,19 +3961,19 @@
         <v>441048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>415576</v>
+        <v>417292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>463491</v>
+        <v>464768</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6578264325888256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6198346383466724</v>
+        <v>0.6223946170822067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6913007827532185</v>
+        <v>0.6932063063818368</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>760</v>
@@ -3982,19 +3982,19 @@
         <v>785935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>753936</v>
+        <v>753692</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>813820</v>
+        <v>815446</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6978714499454274</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6694582245786128</v>
+        <v>0.6692409483857314</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7226318868563563</v>
+        <v>0.7240754416953344</v>
       </c>
     </row>
     <row r="11">
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5874</v>
+        <v>6711</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01316987773559318</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04209002999128023</v>
+        <v>0.04809225375542463</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -4107,19 +4107,19 @@
         <v>19234</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11997</v>
+        <v>12028</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29655</v>
+        <v>28998</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09354316743703095</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05834410137600462</v>
+        <v>0.05849486830509435</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1442219420187181</v>
+        <v>0.1410269770506499</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -4128,19 +4128,19 @@
         <v>21072</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13369</v>
+        <v>13875</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31981</v>
+        <v>32293</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06104902343541263</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03873066352228658</v>
+        <v>0.04019855864611254</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09265461311837175</v>
+        <v>0.093556799258315</v>
       </c>
     </row>
     <row r="13">
@@ -4157,19 +4157,19 @@
         <v>27126</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18681</v>
+        <v>18728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38056</v>
+        <v>38159</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1943841155344271</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1338703240636462</v>
+        <v>0.1342087828472312</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2727114590626202</v>
+        <v>0.2734517396402416</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -4178,19 +4178,19 @@
         <v>53525</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40435</v>
+        <v>42746</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65768</v>
+        <v>68449</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2603103583634853</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1966485725286226</v>
+        <v>0.2078873973782148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.319852003507937</v>
+        <v>0.3328941044152048</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -4199,19 +4199,19 @@
         <v>80650</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65647</v>
+        <v>64779</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97043</v>
+        <v>97633</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2336570157426873</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1901893140374701</v>
+        <v>0.1876735126365009</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2811490648448849</v>
+        <v>0.2828588819474049</v>
       </c>
     </row>
     <row r="14">
@@ -4228,19 +4228,19 @@
         <v>110583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99795</v>
+        <v>98801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119991</v>
+        <v>119212</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7924460067299798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7151348924572137</v>
+        <v>0.7080088062011078</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8598593197651614</v>
+        <v>0.854280658691968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -4249,19 +4249,19 @@
         <v>132860</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119087</v>
+        <v>118193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>146927</v>
+        <v>146243</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6461464741994838</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5791618554376482</v>
+        <v>0.5748176382155368</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7145574860667161</v>
+        <v>0.7112307987466322</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>228</v>
@@ -4270,19 +4270,19 @@
         <v>243443</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>225909</v>
+        <v>224101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>259509</v>
+        <v>259195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7052939608219001</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6544940479438704</v>
+        <v>0.6492544498774467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7518386458233643</v>
+        <v>0.7509296696834202</v>
       </c>
     </row>
     <row r="15">
@@ -4374,19 +4374,19 @@
         <v>33749</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23895</v>
+        <v>22777</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45962</v>
+        <v>47035</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04708108984020477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03333456628951699</v>
+        <v>0.03177510226992981</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0641185981609345</v>
+        <v>0.06561632129244957</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -4395,19 +4395,19 @@
         <v>108919</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90066</v>
+        <v>91004</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131401</v>
+        <v>130075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1021119680321758</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08443752174174231</v>
+        <v>0.08531632027340148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1231896728383512</v>
+        <v>0.1219458178350072</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -4416,19 +4416,19 @@
         <v>142667</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120669</v>
+        <v>120899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>166564</v>
+        <v>168659</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07999383763558318</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06765947494272014</v>
+        <v>0.06778817799125861</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09339277408928955</v>
+        <v>0.0945672474494559</v>
       </c>
     </row>
     <row r="17">
@@ -4445,19 +4445,19 @@
         <v>133480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>114421</v>
+        <v>113147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>157112</v>
+        <v>154133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1862108782159797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1596227801826048</v>
+        <v>0.1578462117962902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2191791528828814</v>
+        <v>0.2150226848531622</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>249</v>
@@ -4466,19 +4466,19 @@
         <v>253708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>227118</v>
+        <v>228313</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>282506</v>
+        <v>283121</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2378526187404097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2129248884435636</v>
+        <v>0.2140448621503677</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2648508712864773</v>
+        <v>0.2654278673108729</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>375</v>
@@ -4487,19 +4487,19 @@
         <v>387188</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>356907</v>
+        <v>350179</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423730</v>
+        <v>423324</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.217096657935245</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2001179259505421</v>
+        <v>0.1963455684263717</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2375858556668843</v>
+        <v>0.2373582428365426</v>
       </c>
     </row>
     <row r="18">
@@ -4516,19 +4516,19 @@
         <v>549592</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>523890</v>
+        <v>527522</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>569640</v>
+        <v>572447</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7667080319438155</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7308517164434799</v>
+        <v>0.7359184662512828</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7946751926208426</v>
+        <v>0.798590813398935</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>683</v>
@@ -4537,19 +4537,19 @@
         <v>704033</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>670343</v>
+        <v>672550</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>735968</v>
+        <v>733907</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6600354132274145</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6284508620663662</v>
+        <v>0.6305194699405106</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.689974178139158</v>
+        <v>0.6880420509222377</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1204</v>
@@ -4558,19 +4558,19 @@
         <v>1253626</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1214309</v>
+        <v>1220588</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1291455</v>
+        <v>1297363</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7029095044291718</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6808643240630859</v>
+        <v>0.6843853807744619</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7241205809914387</v>
+        <v>0.7274330746634217</v>
       </c>
     </row>
     <row r="19">
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5217</v>
+        <v>4955</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05266188340637416</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1718851834808511</v>
+        <v>0.1632687197980309</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5018</v>
+        <v>5421</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03479269850998205</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.109242321271449</v>
+        <v>0.1179990812901869</v>
       </c>
     </row>
     <row r="5">
@@ -4964,19 +4964,19 @@
         <v>4150</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8840</v>
+        <v>9158</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2662195960135427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06911751590244082</v>
+        <v>0.06914077976931152</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5670760847822142</v>
+        <v>0.5874864442529625</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -4985,19 +4985,19 @@
         <v>2431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6396</v>
+        <v>6524</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08009653900525057</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02294449572938714</v>
+        <v>0.02335212381108252</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2107446929354415</v>
+        <v>0.2149625247247281</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -5006,19 +5006,19 @@
         <v>6581</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2560</v>
+        <v>2707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14049</v>
+        <v>13602</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1432516543188882</v>
+        <v>0.1432516543188883</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0557216617214915</v>
+        <v>0.0589274050071224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3058282955574494</v>
+        <v>0.2960977379059335</v>
       </c>
     </row>
     <row r="6">
@@ -5035,19 +5035,19 @@
         <v>11438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6748</v>
+        <v>6430</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14511</v>
+        <v>14510</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7337804039864571</v>
+        <v>0.7337804039864572</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4329239152177859</v>
+        <v>0.4125135557470379</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9308824840975591</v>
+        <v>0.9308592202306885</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -5056,19 +5056,19 @@
         <v>26321</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22255</v>
+        <v>22187</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28806</v>
+        <v>28744</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8672415775883753</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7332802905211379</v>
+        <v>0.731039482743622</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9491115268372771</v>
+        <v>0.9470727413996251</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -5077,19 +5077,19 @@
         <v>37759</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31276</v>
+        <v>31433</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42198</v>
+        <v>42010</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8219556471711296</v>
+        <v>0.8219556471711298</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6808369882023465</v>
+        <v>0.6842521508243463</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9185771637633309</v>
+        <v>0.9144850214266673</v>
       </c>
     </row>
     <row r="7">
@@ -5181,19 +5181,19 @@
         <v>5385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1821</v>
+        <v>1110</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13808</v>
+        <v>14285</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03770119283060513</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01275094999992782</v>
+        <v>0.00777356924576792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09667507115969767</v>
+        <v>0.1000077318177696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -5202,19 +5202,19 @@
         <v>11129</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5400</v>
+        <v>5588</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18985</v>
+        <v>20665</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04919029951477339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02386993896650685</v>
+        <v>0.02469810062298608</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08391471387201591</v>
+        <v>0.09134091718780817</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -5223,19 +5223,19 @@
         <v>16514</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9161</v>
+        <v>9340</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26966</v>
+        <v>27177</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04474396711312564</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02482094110615648</v>
+        <v>0.02530566121187906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07306314935786375</v>
+        <v>0.0736345901516962</v>
       </c>
     </row>
     <row r="9">
@@ -5252,19 +5252,19 @@
         <v>12779</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7010</v>
+        <v>6618</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21731</v>
+        <v>20620</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08946657038860187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04907497542872072</v>
+        <v>0.0463303036352674</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1521431148854554</v>
+        <v>0.1443626712578797</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>53</v>
@@ -5273,19 +5273,19 @@
         <v>49077</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37179</v>
+        <v>37581</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61543</v>
+        <v>61989</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2169200233578661</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.164333090636058</v>
+        <v>0.166108565351277</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2720221630938642</v>
+        <v>0.2739912889225868</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>65</v>
@@ -5294,19 +5294,19 @@
         <v>61855</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49413</v>
+        <v>48029</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75995</v>
+        <v>77516</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1675950033003861</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.133881657100077</v>
+        <v>0.1301338266318053</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.205906660966066</v>
+        <v>0.2100276820528089</v>
       </c>
     </row>
     <row r="10">
@@ -5323,19 +5323,19 @@
         <v>124670</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114543</v>
+        <v>115258</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132035</v>
+        <v>132832</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8728322367807929</v>
+        <v>0.872832236780793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8019284294774096</v>
+        <v>0.8069336410342416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9243968912925705</v>
+        <v>0.9299722549679174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -5344,19 +5344,19 @@
         <v>166037</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152414</v>
+        <v>153052</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178364</v>
+        <v>179856</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7338896771273605</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6736734365284753</v>
+        <v>0.6764951227806452</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7883750440457089</v>
+        <v>0.7949689460192709</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>298</v>
@@ -5365,19 +5365,19 @@
         <v>290708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>275032</v>
+        <v>272494</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304749</v>
+        <v>305562</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7876610295864883</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7451893834487368</v>
+        <v>0.7383127898484456</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.825705682393359</v>
+        <v>0.8279081356281014</v>
       </c>
     </row>
     <row r="11">
@@ -5469,19 +5469,19 @@
         <v>3148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8462</v>
+        <v>8127</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08774370923786926</v>
+        <v>0.08774370923786927</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02366140423931986</v>
+        <v>0.02456544394162857</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2358327891384035</v>
+        <v>0.2265129089671112</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -5490,19 +5490,19 @@
         <v>2276</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8171</v>
+        <v>8662</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03975410258655722</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0</v>
+        <v>0.01192717198210857</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1427515145079469</v>
+        <v>0.1513244741008426</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -5511,19 +5511,19 @@
         <v>5424</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1970</v>
+        <v>2137</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13570</v>
+        <v>11984</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05824464318510809</v>
+        <v>0.0582446431851081</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02115944270320024</v>
+        <v>0.02295247089343738</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1457173514392901</v>
+        <v>0.1286950566442192</v>
       </c>
     </row>
     <row r="13">
@@ -5540,19 +5540,19 @@
         <v>2534</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6969</v>
+        <v>6709</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.070611510823589</v>
+        <v>0.07061151082358903</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02190658357726329</v>
+        <v>0.0210384152423913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1942170638936666</v>
+        <v>0.1869945139604209</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -5561,19 +5561,19 @@
         <v>15980</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10097</v>
+        <v>10540</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22230</v>
+        <v>23041</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2791735004978275</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1763996932988357</v>
+        <v>0.1841334333506848</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3883466482837141</v>
+        <v>0.4025256808148585</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -5582,19 +5582,19 @@
         <v>18514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12405</v>
+        <v>12051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26456</v>
+        <v>27246</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1988139350317783</v>
+        <v>0.1988139350317784</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1332130326403795</v>
+        <v>0.1294111410794048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2840947320742692</v>
+        <v>0.292583221913903</v>
       </c>
     </row>
     <row r="14">
@@ -5611,19 +5611,19 @@
         <v>30198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24460</v>
+        <v>24815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33910</v>
+        <v>33462</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8416447799385416</v>
+        <v>0.8416447799385418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6817054424066876</v>
+        <v>0.6916178582057081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9450922357623718</v>
+        <v>0.9326118495154438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -5632,19 +5632,19 @@
         <v>38986</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32258</v>
+        <v>31777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45702</v>
+        <v>45128</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6810723969156154</v>
+        <v>0.6810723969156153</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5635339944080462</v>
+        <v>0.5551427999499585</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7983913325945052</v>
+        <v>0.7883722380434661</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -5653,19 +5653,19 @@
         <v>69185</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60381</v>
+        <v>59966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>76835</v>
+        <v>76325</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7429414217831136</v>
+        <v>0.7429414217831134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6483967151999857</v>
+        <v>0.6439473935043516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8250924106524832</v>
+        <v>0.819614165359991</v>
       </c>
     </row>
     <row r="15">
@@ -5757,19 +5757,19 @@
         <v>8533</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3837</v>
+        <v>3436</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17459</v>
+        <v>17194</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04391767478005828</v>
+        <v>0.04391767478005827</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01974932069148804</v>
+        <v>0.01768625699519846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0898574223901214</v>
+        <v>0.08848877305782256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -5778,19 +5778,19 @@
         <v>15003</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8492</v>
+        <v>8386</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25284</v>
+        <v>25999</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04780490547651343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02705806184882593</v>
+        <v>0.02672102148487447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08056411779657506</v>
+        <v>0.08284421748032682</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -5799,19 +5799,19 @@
         <v>23536</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15026</v>
+        <v>14533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34869</v>
+        <v>34775</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04631850036105852</v>
+        <v>0.04631850036105851</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02957043469407707</v>
+        <v>0.02860092669780339</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06862160593500231</v>
+        <v>0.06843549701311333</v>
       </c>
     </row>
     <row r="17">
@@ -5828,19 +5828,19 @@
         <v>19462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12333</v>
+        <v>12186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31239</v>
+        <v>29914</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1001644284596449</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06347409780000399</v>
+        <v>0.06271830731559232</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1607777089989164</v>
+        <v>0.1539581855288241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -5849,19 +5849,19 @@
         <v>67488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54300</v>
+        <v>54417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84216</v>
+        <v>82989</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2150429473871673</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1730198134906261</v>
+        <v>0.1733942125346375</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2683463700299828</v>
+        <v>0.2644351166411036</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -5870,19 +5870,19 @@
         <v>86950</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>71128</v>
+        <v>69536</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104575</v>
+        <v>104553</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1711155266798063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1399781382658989</v>
+        <v>0.1368452914648179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2058015072343335</v>
+        <v>0.2057579458829266</v>
       </c>
     </row>
     <row r="18">
@@ -5899,19 +5899,19 @@
         <v>166307</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>153298</v>
+        <v>154574</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>174744</v>
+        <v>175496</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8559178967602967</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.788966446064601</v>
+        <v>0.7955366852083635</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8993409094311992</v>
+        <v>0.903213900286048</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>277</v>
@@ -5920,19 +5920,19 @@
         <v>231344</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>216130</v>
+        <v>214403</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>246109</v>
+        <v>245920</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7371521471363193</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.688673919947157</v>
+        <v>0.6831715592026826</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7841972371427665</v>
+        <v>0.7835978202494517</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>417</v>
@@ -5941,19 +5941,19 @@
         <v>397651</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>379014</v>
+        <v>377336</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>417003</v>
+        <v>416230</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7825659729591351</v>
+        <v>0.782565972959135</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7458894708587922</v>
+        <v>0.742586320054286</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8206515409510025</v>
+        <v>0.8191303291637452</v>
       </c>
     </row>
     <row r="19">
